--- a/Data/EC/CC-73124205.xlsx
+++ b/Data/EC/CC-73124205.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2066380C-5423-464B-9C92-ACA8D7F7D82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBE88F95-3FAC-4877-974E-52F65914388A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2A2CCD71-42C3-4504-A423-0263868F395F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5E77604-DEC5-4F3B-8FB5-B753B58D70EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -287,9 +287,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -302,7 +300,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -496,29 +496,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,19 +537,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9D5400-80B6-0C44-6699-51DA2BDC545F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC40EB3-D3F9-0D9C-3129-BF984A364C14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33B0D27-E322-4D7F-BA5C-C478F35E4EDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7F261D-5DD2-43FF-AD34-00C44D9AE1B7}">
   <dimension ref="B2:J131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -976,49 +982,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1026,7 +1032,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>73124205</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>4445123</v>
       </c>
@@ -1127,18 +1133,18 @@
       <c r="D16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>10827</v>
       </c>
-      <c r="G16" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="G16" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1150,18 +1156,18 @@
       <c r="D17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>10827</v>
       </c>
-      <c r="G17" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1173,18 +1179,18 @@
       <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>10827</v>
       </c>
-      <c r="G18" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="G18" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1196,18 +1202,18 @@
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>10827</v>
       </c>
-      <c r="G19" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="G19" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1219,18 +1225,18 @@
       <c r="D20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>10827</v>
       </c>
-      <c r="G20" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="G20" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1242,18 +1248,18 @@
       <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>10827</v>
       </c>
-      <c r="G21" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="G21" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1265,18 +1271,18 @@
       <c r="D22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>10827</v>
       </c>
-      <c r="G22" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="G22" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1288,18 +1294,18 @@
       <c r="D23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>10827</v>
       </c>
-      <c r="G23" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="G23" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1311,18 +1317,18 @@
       <c r="D24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>10827</v>
       </c>
-      <c r="G24" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="G24" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1334,18 +1340,18 @@
       <c r="D25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1357,18 +1363,18 @@
       <c r="D26" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>41760</v>
       </c>
-      <c r="G26" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="G26" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1380,18 +1386,18 @@
       <c r="D27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1403,18 +1409,18 @@
       <c r="D28" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>41760</v>
       </c>
-      <c r="G28" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="G28" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1426,18 +1432,18 @@
       <c r="D29" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1449,18 +1455,18 @@
       <c r="D30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1472,18 +1478,18 @@
       <c r="D31" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>41760</v>
       </c>
-      <c r="G31" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="G31" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1495,18 +1501,18 @@
       <c r="D32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1518,18 +1524,18 @@
       <c r="D33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1541,18 +1547,18 @@
       <c r="D34" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1564,18 +1570,18 @@
       <c r="D35" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>41760</v>
       </c>
-      <c r="G35" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1587,18 +1593,18 @@
       <c r="D36" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>41760</v>
       </c>
-      <c r="G36" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="G36" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1610,18 +1616,18 @@
       <c r="D37" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1633,18 +1639,18 @@
       <c r="D38" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>41760</v>
       </c>
-      <c r="G38" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="G38" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1656,18 +1662,18 @@
       <c r="D39" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>41760</v>
       </c>
-      <c r="G39" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="G39" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1679,18 +1685,18 @@
       <c r="D40" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>41760</v>
       </c>
-      <c r="G40" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="G40" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1702,18 +1708,18 @@
       <c r="D41" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1725,18 +1731,18 @@
       <c r="D42" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>41760</v>
       </c>
-      <c r="G42" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="G42" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1748,18 +1754,18 @@
       <c r="D43" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1771,18 +1777,18 @@
       <c r="D44" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1794,18 +1800,18 @@
       <c r="D45" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1817,18 +1823,18 @@
       <c r="D46" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1840,18 +1846,18 @@
       <c r="D47" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1863,18 +1869,18 @@
       <c r="D48" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1886,18 +1892,18 @@
       <c r="D49" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1909,18 +1915,18 @@
       <c r="D50" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -1932,18 +1938,18 @@
       <c r="D51" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -1955,18 +1961,18 @@
       <c r="D52" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -1978,18 +1984,18 @@
       <c r="D53" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2001,18 +2007,18 @@
       <c r="D54" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2024,18 +2030,18 @@
       <c r="D55" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2047,18 +2053,18 @@
       <c r="D56" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2070,18 +2076,18 @@
       <c r="D57" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2093,18 +2099,18 @@
       <c r="D58" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F58" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2116,18 +2122,18 @@
       <c r="D59" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2139,18 +2145,18 @@
       <c r="D60" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F60" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2162,18 +2168,18 @@
       <c r="D61" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F61" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2185,18 +2191,18 @@
       <c r="D62" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F62" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2208,18 +2214,18 @@
       <c r="D63" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2231,18 +2237,18 @@
       <c r="D64" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F64" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2254,18 +2260,18 @@
       <c r="D65" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F65" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2277,18 +2283,18 @@
       <c r="D66" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2300,18 +2306,18 @@
       <c r="D67" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F67" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G67" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2323,18 +2329,18 @@
       <c r="D68" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F68" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2346,18 +2352,18 @@
       <c r="D69" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2369,18 +2375,18 @@
       <c r="D70" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F70" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2392,18 +2398,18 @@
       <c r="D71" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F71" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2415,18 +2421,18 @@
       <c r="D72" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F72" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2438,18 +2444,18 @@
       <c r="D73" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F73" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G73" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2461,18 +2467,18 @@
       <c r="D74" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F74" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2484,18 +2490,18 @@
       <c r="D75" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F75" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2507,18 +2513,18 @@
       <c r="D76" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F76" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2530,18 +2536,18 @@
       <c r="D77" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F77" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G77" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2553,18 +2559,18 @@
       <c r="D78" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F78" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2576,18 +2582,18 @@
       <c r="D79" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F79" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G79" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2599,18 +2605,18 @@
       <c r="D80" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F80" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G80" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2622,18 +2628,18 @@
       <c r="D81" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F81" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G81" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G81" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2645,18 +2651,18 @@
       <c r="D82" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G82" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2668,18 +2674,18 @@
       <c r="D83" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F83" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G83" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2691,18 +2697,18 @@
       <c r="D84" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F84" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2714,18 +2720,18 @@
       <c r="D85" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F85" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G85" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G85" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2737,18 +2743,18 @@
       <c r="D86" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F86" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G86" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2760,18 +2766,18 @@
       <c r="D87" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F87" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G87" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2783,18 +2789,18 @@
       <c r="D88" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F88" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G88" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2806,18 +2812,18 @@
       <c r="D89" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F89" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G89" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2829,18 +2835,18 @@
       <c r="D90" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F90" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G90" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2852,18 +2858,18 @@
       <c r="D91" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F91" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G91" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -2875,18 +2881,18 @@
       <c r="D92" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F92" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G92" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -2898,18 +2904,18 @@
       <c r="D93" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F93" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G93" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -2921,18 +2927,18 @@
       <c r="D94" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F94" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G94" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -2944,18 +2950,18 @@
       <c r="D95" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F95" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G95" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -2967,18 +2973,18 @@
       <c r="D96" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F96" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G96" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G96" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -2990,18 +2996,18 @@
       <c r="D97" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F97" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G97" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G97" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3013,18 +3019,18 @@
       <c r="D98" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F98" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G98" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G98" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3036,18 +3042,18 @@
       <c r="D99" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F99" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G99" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3059,18 +3065,18 @@
       <c r="D100" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F100" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G100" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3082,18 +3088,18 @@
       <c r="D101" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F101" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G101" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3105,18 +3111,18 @@
       <c r="D102" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F102" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G102" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3128,18 +3134,18 @@
       <c r="D103" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F103" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G103" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3151,18 +3157,18 @@
       <c r="D104" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F104" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G104" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3174,18 +3180,18 @@
       <c r="D105" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F105" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3197,18 +3203,18 @@
       <c r="D106" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F106" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G106" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3220,18 +3226,18 @@
       <c r="D107" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F107" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G107" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3243,18 +3249,18 @@
       <c r="D108" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F108" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G108" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3266,18 +3272,18 @@
       <c r="D109" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F109" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G109" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="19">
+        <v>46400</v>
+      </c>
+      <c r="G109" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3289,18 +3295,18 @@
       <c r="D110" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="19">
         <v>27840</v>
       </c>
-      <c r="G110" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="G110" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3312,18 +3318,18 @@
       <c r="D111" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="19">
         <v>27840</v>
       </c>
-      <c r="G111" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="G111" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3335,18 +3341,18 @@
       <c r="D112" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="19">
         <v>27840</v>
       </c>
-      <c r="G112" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="G112" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3358,18 +3364,18 @@
       <c r="D113" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F113" s="19">
         <v>27840</v>
       </c>
-      <c r="G113" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="G113" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3381,18 +3387,18 @@
       <c r="D114" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F114" s="18">
+      <c r="F114" s="19">
         <v>27840</v>
       </c>
-      <c r="G114" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="G114" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3404,18 +3410,18 @@
       <c r="D115" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="19">
         <v>27840</v>
       </c>
-      <c r="G115" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="G115" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3427,18 +3433,18 @@
       <c r="D116" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="19">
         <v>27840</v>
       </c>
-      <c r="G116" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="G116" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3450,18 +3456,18 @@
       <c r="D117" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F117" s="18">
+      <c r="F117" s="19">
         <v>27840</v>
       </c>
-      <c r="G117" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="G117" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3473,18 +3479,18 @@
       <c r="D118" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="19">
         <v>27840</v>
       </c>
-      <c r="G118" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="G118" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3496,18 +3502,18 @@
       <c r="D119" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F119" s="19">
         <v>27840</v>
       </c>
-      <c r="G119" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="G119" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3519,18 +3525,18 @@
       <c r="D120" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F120" s="18">
+      <c r="F120" s="19">
         <v>27840</v>
       </c>
-      <c r="G120" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="G120" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3542,18 +3548,18 @@
       <c r="D121" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F121" s="18">
+      <c r="F121" s="19">
         <v>27840</v>
       </c>
-      <c r="G121" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="G121" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3565,18 +3571,18 @@
       <c r="D122" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="19">
         <v>27840</v>
       </c>
-      <c r="G122" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="G122" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3588,18 +3594,18 @@
       <c r="D123" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F123" s="18">
+      <c r="F123" s="19">
         <v>27840</v>
       </c>
-      <c r="G123" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="G123" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3611,47 +3617,47 @@
       <c r="D124" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F124" s="18">
+      <c r="F124" s="19">
         <v>27840</v>
       </c>
-      <c r="G124" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="G124" s="19">
+        <v>1160000</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" s="22" t="s">
+      <c r="B125" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E125" s="22" t="s">
+      <c r="E125" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F125" s="24">
+      <c r="F125" s="26">
         <v>27840</v>
       </c>
-      <c r="G125" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
-      <c r="J125" s="26"/>
+      <c r="G125" s="26">
+        <v>1160000</v>
+      </c>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="28"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="32" t="s">
+      <c r="B130" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C130" s="32"/>
+      <c r="C130" s="34"/>
       <c r="H130" s="1" t="s">
         <v>60</v>
       </c>
@@ -3659,10 +3665,10 @@
       <c r="J130" s="1"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="32" t="s">
+      <c r="B131" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C131" s="32"/>
+      <c r="C131" s="34"/>
       <c r="H131" s="1" t="s">
         <v>61</v>
       </c>
